--- a/export_lista_fiis_investimentos['Lajes Corporativas'].xlsx
+++ b/export_lista_fiis_investimentos['Lajes Corporativas'].xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PVBI11</t>
+          <t>HGPO11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>87,75</t>
+          <t>254,00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO - VBI PRIME PROPERTIES</t>
+          <t>CSHG PRIME OFFICES - FUNDO DE INVESTIMENTO IMOBILIÁRIO FII</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -710,94 +710,274 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10.039.493</t>
+          <t>1.753.057</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2306790</v>
+        <v>446431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PVBI11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>87,75</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIÁRIO - VBI PRIME PROPERTIES</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lajes Corporativas</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>10.039.493</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>2306790</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RBCO11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>RB CAPITAL OFFICE INCOME FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lajes Corporativas</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3.779.001</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>222929</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>VINO11</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>48,10</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>VINCI OFFICES FUNDO DE INVESTIMENTO IMOBILIÁRIO</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11/02/2022</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Lajes Corporativas</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>12</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>5.87</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>5.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>0.7</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L8" t="n">
         <v>9</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>12.673.868</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="N8" t="n">
         <v>2979540</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VLOL11</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>95,50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNDO DE INVESTIMENTO IMOBILIARIO - FII VILA OLIMPIA CORPORATE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lajes Corporativas</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.784.828</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>214111</v>
       </c>
     </row>
   </sheetData>
